--- a/FBIAB/Geometry/EGMO.xlsx
+++ b/FBIAB/Geometry/EGMO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGAPR\Desktop\IMO\FBIAB\Geometry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGAPR\Desktop\IMO-Docs\FBIAB\Geometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47269092-4368-47F3-8113-4635D1D4EEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD710836-06C5-4966-B87E-F4514C2240B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,6 +512,12 @@
       <c r="B8" s="2">
         <v>13</v>
       </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -520,6 +526,12 @@
       <c r="B9" s="2">
         <v>15</v>
       </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -528,6 +540,12 @@
       <c r="B10" s="2">
         <v>16</v>
       </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -536,6 +554,12 @@
       <c r="B11" s="2">
         <v>19</v>
       </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -544,6 +568,12 @@
       <c r="B12" s="2">
         <v>20</v>
       </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -755,5 +785,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>